--- a/automation-project/ExcelDataFiles/UserDetails.xlsx
+++ b/automation-project/ExcelDataFiles/UserDetails.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Docs\Rahul\VitaminShopee\Automation_Project\ExcelDataFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vaibhav13011\git\staf\Automatix-FPT\automation-project\ExcelDataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,12 +20,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Web Portal'!$A$1:$D$3</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
   <si>
     <t>User Details</t>
   </si>
@@ -79,6 +79,36 @@
   </si>
   <si>
     <t>sunil@143</t>
+  </si>
+  <si>
+    <t>Evosys Fusion</t>
+  </si>
+  <si>
+    <t>kunal.vatyani</t>
+  </si>
+  <si>
+    <t>Evosys@123</t>
+  </si>
+  <si>
+    <t>Approver 1 Username</t>
+  </si>
+  <si>
+    <t>Approver 1 Password</t>
+  </si>
+  <si>
+    <t>Approver 2 Username</t>
+  </si>
+  <si>
+    <t>Approver 2 Password</t>
+  </si>
+  <si>
+    <t>Kathryn.Pardoe</t>
+  </si>
+  <si>
+    <t>Welcome@123</t>
+  </si>
+  <si>
+    <t>Paul.Cullingford</t>
   </si>
 </sst>
 </file>
@@ -179,7 +209,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -224,6 +254,9 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -564,10 +597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -580,7 +613,7 @@
     <col min="6" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>1</v>
       </c>
@@ -596,8 +629,13 @@
       <c r="E1" s="7" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>2</v>
       </c>
@@ -613,8 +651,13 @@
       <c r="E2" s="15" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>3</v>
       </c>
@@ -627,6 +670,65 @@
       </c>
       <c r="E3" s="12" t="s">
         <v>17</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -634,9 +736,10 @@
     <hyperlink ref="C2" r:id="rId1" display="rkhetal@googlemail.com"/>
     <hyperlink ref="E2" r:id="rId2"/>
     <hyperlink ref="E3" r:id="rId3"/>
+    <hyperlink ref="H3" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId4"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId5"/>
 </worksheet>
 </file>
 
